--- a/tests/test_inputs/pears/Program_Activities_Export.xlsx
+++ b/tests/test_inputs/pears/Program_Activities_Export.xlsx
@@ -3376,22 +3376,22 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Kimberly Williams</t>
+          <t>Stephanie Pitts</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Kimberly.Williams@fake_domain.com</t>
+          <t>Stephanie.Pitts@fake_domain.com</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Kimberly Williams</t>
+          <t>Stephanie Pitts</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Kimberly Williams</t>
+          <t>Stephanie Pitts</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -3439,12 +3439,12 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>Ramirez Group</t>
+          <t>Bowman-Petty</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>5633 Duke Mountain Suite 697</t>
+          <t>2986 Williams Springs Suite 651</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -3466,10 +3466,10 @@
         <v>61801</v>
       </c>
       <c r="AD2" t="n">
-        <v>38.36953323318392</v>
+        <v>39.9047181430313</v>
       </c>
       <c r="AE2" t="n">
-        <v>-91.03952403647321</v>
+        <v>-89.80001644561527</v>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
@@ -3825,22 +3825,22 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Kimberly Williams</t>
+          <t>Stephanie Pitts</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Kimberly.Williams@fake_domain.com</t>
+          <t>Stephanie.Pitts@fake_domain.com</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Kimberly Williams</t>
+          <t>Stephanie Pitts</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Kimberly Williams</t>
+          <t>Stephanie Pitts</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -3888,12 +3888,12 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>Ramirez Group</t>
+          <t>Bowman-Petty</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>5633 Duke Mountain Suite 697</t>
+          <t>2986 Williams Springs Suite 651</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -3915,10 +3915,10 @@
         <v>61801</v>
       </c>
       <c r="AD3" t="n">
-        <v>38.36953323318392</v>
+        <v>39.9047181430313</v>
       </c>
       <c r="AE3" t="n">
-        <v>-91.03952403647321</v>
+        <v>-89.80001644561527</v>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v/>
       </c>
       <c r="BZ3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CA3" t="n">
         <v/>
@@ -4270,22 +4270,22 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Caroline Wong</t>
+          <t>Kimberly Rodriguez</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Caroline.Wong@fake_domain.com</t>
+          <t>Kimberly.Rodriguez@fake_domain.com</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Casey Carey, Caroline Wong</t>
+          <t>Amanda Hernandez, Kimberly Rodriguez</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Casey Carey, Caroline Wong</t>
+          <t>Amanda Hernandez, Kimberly Rodriguez</t>
         </is>
       </c>
       <c r="M4" t="n">
@@ -4333,12 +4333,12 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>Washington and Sons</t>
+          <t>Bowman-Perez</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>5886 Bryan Burg Suite 495</t>
+          <t>6233 Kimberly Views Suite 688</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -4360,10 +4360,10 @@
         <v>61801</v>
       </c>
       <c r="AD4" t="n">
-        <v>38.23734372618625</v>
+        <v>39.83511455245019</v>
       </c>
       <c r="AE4" t="n">
-        <v>-91.21334044903573</v>
+        <v>-87.71941968564552</v>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
@@ -4715,22 +4715,22 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Jessica Whitaker</t>
+          <t>Tina Harding</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Jessica.Whitaker@fake_domain.com</t>
+          <t>Tina.Harding@fake_domain.com</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Jessica Whitaker</t>
+          <t>Tina Harding</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Jessica Whitaker</t>
+          <t>Tina Harding</t>
         </is>
       </c>
       <c r="M5" t="n">
@@ -4774,12 +4774,12 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>Frazier-Dean</t>
+          <t>Landry Inc</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>377 Jasmine Lock Apt. 743</t>
+          <t>962 Howard Union Apt. 078</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -4801,10 +4801,10 @@
         <v>61348</v>
       </c>
       <c r="AD5" t="n">
-        <v>40.61938808795102</v>
+        <v>39.46489976834905</v>
       </c>
       <c r="AE5" t="n">
-        <v>-89.23094516313058</v>
+        <v>-87.93113043776519</v>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v/>
       </c>
       <c r="BZ5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CA5" t="inlineStr">
         <is>
@@ -5160,22 +5160,22 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Kimberly Williams</t>
+          <t>Stephanie Pitts</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Kimberly.Williams@fake_domain.com</t>
+          <t>Stephanie.Pitts@fake_domain.com</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Kimberly Williams</t>
+          <t>Stephanie Pitts</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Kimberly Williams</t>
+          <t>Stephanie Pitts</t>
         </is>
       </c>
       <c r="M6" t="n">
@@ -5223,12 +5223,12 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>Ramirez Group</t>
+          <t>Bowman-Petty</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>5633 Duke Mountain Suite 697</t>
+          <t>2986 Williams Springs Suite 651</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -5250,10 +5250,10 @@
         <v>61801</v>
       </c>
       <c r="AD6" t="n">
-        <v>38.36953323318392</v>
+        <v>39.9047181430313</v>
       </c>
       <c r="AE6" t="n">
-        <v>-91.03952403647321</v>
+        <v>-89.80001644561527</v>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v/>
       </c>
       <c r="BZ6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="CA6" t="n">
         <v/>
@@ -5605,22 +5605,22 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Dr.James.Khan.MD@fake_domain.com</t>
+          <t>Brandi.Gamble@fake_domain.com</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="M7" t="n">
@@ -5660,12 +5660,12 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>MOORE HAVEN MIDDLE HIGH SCHOOL.</t>
+          <t>Coolidge HS</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>635 Harris Vista</t>
+          <t>1067 Bennett Ranch Apt. 555</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -5687,10 +5687,10 @@
         <v>99501</v>
       </c>
       <c r="AD7" t="n">
-        <v>38.60787872947612</v>
+        <v>39.70395620804255</v>
       </c>
       <c r="AE7" t="n">
-        <v>-89.13559311171301</v>
+        <v>-89.04096468306663</v>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
@@ -5841,7 +5841,7 @@
         <v/>
       </c>
       <c r="BZ7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="CA7" t="n">
         <v/>
@@ -6038,22 +6038,22 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Dr.James.Khan.MD@fake_domain.com</t>
+          <t>Brandi.Gamble@fake_domain.com</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="M8" t="n">
@@ -6093,12 +6093,12 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>MOORE HAVEN MIDDLE HIGH SCHOOL.</t>
+          <t>Coolidge HS</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>635 Harris Vista</t>
+          <t>1067 Bennett Ranch Apt. 555</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -6120,10 +6120,10 @@
         <v>99501</v>
       </c>
       <c r="AD8" t="n">
-        <v>38.60787872947612</v>
+        <v>39.70395620804255</v>
       </c>
       <c r="AE8" t="n">
-        <v>-89.13559311171301</v>
+        <v>-89.04096468306663</v>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
         <v/>
       </c>
       <c r="BZ8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CA8" t="n">
         <v/>
@@ -6471,22 +6471,22 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Dr.James.Khan.MD@fake_domain.com</t>
+          <t>Brandi.Gamble@fake_domain.com</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="M9" t="n">
@@ -6530,12 +6530,12 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>MOORE HAVEN MIDDLE HIGH SCHOOL.</t>
+          <t>Coolidge HS</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>635 Harris Vista</t>
+          <t>1067 Bennett Ranch Apt. 555</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -6557,10 +6557,10 @@
         <v>99501</v>
       </c>
       <c r="AD9" t="n">
-        <v>38.60787872947612</v>
+        <v>39.70395620804255</v>
       </c>
       <c r="AE9" t="n">
-        <v>-89.13559311171301</v>
+        <v>-89.04096468306663</v>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
@@ -7330,7 +7330,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Kimberly Williams</t>
+          <t>Stephanie Pitts</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -7354,7 +7354,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Kimberly Williams</t>
+          <t>Stephanie Pitts</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -7378,7 +7378,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Casey Carey</t>
+          <t>Amanda Hernandez</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -7404,7 +7404,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Caroline Wong</t>
+          <t>Kimberly Rodriguez</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -7428,7 +7428,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jessica Whitaker</t>
+          <t>Tina Harding</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -7452,7 +7452,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Kimberly Williams</t>
+          <t>Stephanie Pitts</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -7476,7 +7476,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -7500,7 +7500,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -7524,7 +7524,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
